--- a/team_specific_matrix/Columbia_B.xlsx
+++ b/team_specific_matrix/Columbia_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1782945736434109</v>
+        <v>0.1822222222222222</v>
       </c>
       <c r="C2">
-        <v>0.5968992248062015</v>
+        <v>0.5822222222222222</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03875968992248062</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1162790697674419</v>
+        <v>0.12</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06976744186046512</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01298701298701299</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C3">
-        <v>0.01298701298701299</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02597402597402598</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7012987012987013</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2467532467532468</v>
+        <v>0.2246376811594203</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P4">
-        <v>0.6818181818181818</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04615384615384616</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007692307692307693</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07692307692307693</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1923076923076923</v>
+        <v>0.2065727699530517</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01538461538461539</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1615384615384615</v>
+        <v>0.1314553990610329</v>
       </c>
       <c r="R6">
-        <v>0.09230769230769231</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="S6">
-        <v>0.4076923076923077</v>
+        <v>0.4366197183098591</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05208333333333334</v>
+        <v>0.05625</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04166666666666666</v>
+        <v>0.0375</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03125</v>
+        <v>0.04375</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.15625</v>
+        <v>0.16875</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1979166666666667</v>
+        <v>0.175</v>
       </c>
       <c r="R7">
-        <v>0.08333333333333333</v>
+        <v>0.05625</v>
       </c>
       <c r="S7">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0873015873015873</v>
+        <v>0.09592326139088729</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01587301587301587</v>
+        <v>0.01199040767386091</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07142857142857142</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111111</v>
+        <v>0.105515587529976</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01984126984126984</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1746031746031746</v>
+        <v>0.1654676258992806</v>
       </c>
       <c r="R8">
-        <v>0.1111111111111111</v>
+        <v>0.1247002398081535</v>
       </c>
       <c r="S8">
-        <v>0.4087301587301587</v>
+        <v>0.4028776978417266</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08148148148148149</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02222222222222222</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07407407407407407</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06666666666666667</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.007407407407407408</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1407407407407407</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="R9">
-        <v>0.08888888888888889</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="S9">
-        <v>0.5185185185185185</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09104704097116843</v>
+        <v>0.09724770642201835</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01820940819423369</v>
+        <v>0.02568807339449541</v>
       </c>
       <c r="E10">
-        <v>0.001517450682852807</v>
+        <v>0.0009174311926605505</v>
       </c>
       <c r="F10">
-        <v>0.07890743550834597</v>
+        <v>0.07889908256880734</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1153262518968134</v>
+        <v>0.1146788990825688</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01517450682852807</v>
+        <v>0.01559633027522936</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1987860394537178</v>
+        <v>0.1935779816513762</v>
       </c>
       <c r="R10">
-        <v>0.08952959028831563</v>
+        <v>0.09357798165137615</v>
       </c>
       <c r="S10">
-        <v>0.3915022761760243</v>
+        <v>0.3798165137614679</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.163265306122449</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06802721088435375</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="K11">
-        <v>0.217687074829932</v>
+        <v>0.2035398230088496</v>
       </c>
       <c r="L11">
-        <v>0.5510204081632653</v>
+        <v>0.5796460176991151</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6739130434782609</v>
+        <v>0.7342657342657343</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2173913043478261</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="L12">
-        <v>0.08695652173913043</v>
+        <v>0.06293706293706294</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02173913043478261</v>
+        <v>0.01398601398601399</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.55</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01834862385321101</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1100917431192661</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="I15">
-        <v>0.1559633027522936</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J15">
-        <v>0.4036697247706422</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="K15">
-        <v>0.05504587155963303</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06422018348623854</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1926605504587156</v>
+        <v>0.2166666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01219512195121951</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1097560975609756</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="I16">
-        <v>0.08536585365853659</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="J16">
-        <v>0.4634146341463415</v>
+        <v>0.4965986394557823</v>
       </c>
       <c r="K16">
-        <v>0.1585365853658537</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01219512195121951</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="N16">
-        <v>0.01219512195121951</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="O16">
-        <v>0.03658536585365853</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1097560975609756</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02202643171806168</v>
+        <v>0.03591160220994475</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2070484581497797</v>
+        <v>0.2016574585635359</v>
       </c>
       <c r="I17">
-        <v>0.08370044052863436</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="J17">
-        <v>0.4185022026431718</v>
+        <v>0.4364640883977901</v>
       </c>
       <c r="K17">
-        <v>0.0881057268722467</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.013215859030837</v>
+        <v>0.0138121546961326</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04845814977973568</v>
+        <v>0.04696132596685083</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.118942731277533</v>
+        <v>0.1049723756906077</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03361344537815126</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1512605042016807</v>
+        <v>0.1624365482233502</v>
       </c>
       <c r="I18">
-        <v>0.1176470588235294</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="J18">
-        <v>0.4453781512605042</v>
+        <v>0.4517766497461929</v>
       </c>
       <c r="K18">
-        <v>0.05042016806722689</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01680672268907563</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06722689075630252</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1176470588235294</v>
+        <v>0.1319796954314721</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01253481894150418</v>
+        <v>0.01394943330427201</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2381615598885794</v>
+        <v>0.2388840453356582</v>
       </c>
       <c r="I19">
-        <v>0.1086350974930362</v>
+        <v>0.1002615518744551</v>
       </c>
       <c r="J19">
-        <v>0.3342618384401114</v>
+        <v>0.3443766346992154</v>
       </c>
       <c r="K19">
-        <v>0.0988857938718663</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0181058495821727</v>
+        <v>0.02266782911944202</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06406685236768803</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1253481894150418</v>
+        <v>0.1185701830863121</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Columbia_B.xlsx
+++ b/team_specific_matrix/Columbia_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1822222222222222</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C2">
-        <v>0.5822222222222222</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02666666666666667</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.12</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08888888888888889</v>
+        <v>0.08403361344537816</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01449275362318841</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="C3">
-        <v>0.03623188405797102</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02898550724637681</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6956521739130435</v>
+        <v>0.7046979865771812</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2246376811594203</v>
+        <v>0.2214765100671141</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09302325581395349</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02325581395348837</v>
+        <v>0.02</v>
       </c>
       <c r="P4">
-        <v>0.6511627906976745</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2325581395348837</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05164319248826291</v>
+        <v>0.04661016949152542</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004694835680751174</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07511737089201878</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2065727699530517</v>
+        <v>0.2076271186440678</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0187793427230047</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1314553990610329</v>
+        <v>0.1398305084745763</v>
       </c>
       <c r="R6">
-        <v>0.07511737089201878</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="S6">
-        <v>0.4366197183098591</v>
+        <v>0.4364406779661017</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05625</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0375</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04375</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.16875</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0125</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.175</v>
+        <v>0.1812865497076023</v>
       </c>
       <c r="R7">
-        <v>0.05625</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="S7">
-        <v>0.45</v>
+        <v>0.4385964912280702</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09592326139088729</v>
+        <v>0.09662921348314607</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01199040767386091</v>
+        <v>0.01573033707865169</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07194244604316546</v>
+        <v>0.07191011235955057</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.105515587529976</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02158273381294964</v>
+        <v>0.02022471910112359</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1654676258992806</v>
+        <v>0.1662921348314607</v>
       </c>
       <c r="R8">
-        <v>0.1247002398081535</v>
+        <v>0.1213483146067416</v>
       </c>
       <c r="S8">
-        <v>0.4028776978417266</v>
+        <v>0.4067415730337079</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07179487179487179</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02564102564102564</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08205128205128205</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005128205128205128</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1641025641025641</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="R9">
-        <v>0.09743589743589744</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="S9">
-        <v>0.4871794871794872</v>
+        <v>0.4672897196261682</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09724770642201835</v>
+        <v>0.09682947729220223</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02568807339449541</v>
+        <v>0.02656383890317052</v>
       </c>
       <c r="E10">
-        <v>0.0009174311926605505</v>
+        <v>0.000856898029134533</v>
       </c>
       <c r="F10">
-        <v>0.07889908256880734</v>
+        <v>0.0805484147386461</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1146788990825688</v>
+        <v>0.1122536418166238</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01559633027522936</v>
+        <v>0.01456726649528706</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1935779816513762</v>
+        <v>0.194515852613539</v>
       </c>
       <c r="R10">
-        <v>0.09357798165137615</v>
+        <v>0.09511568123393316</v>
       </c>
       <c r="S10">
-        <v>0.3798165137614679</v>
+        <v>0.3787489288774636</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1592920353982301</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05752212389380531</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="K11">
-        <v>0.2035398230088496</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="L11">
-        <v>0.5796460176991151</v>
+        <v>0.5772357723577236</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7342657342657343</v>
+        <v>0.7337662337662337</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1818181818181818</v>
+        <v>0.1883116883116883</v>
       </c>
       <c r="K12">
-        <v>0.006993006993006993</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="L12">
-        <v>0.06293706293706294</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01398601398601399</v>
+        <v>0.01298701298701299</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6388888888888888</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02777777777777778</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1388888888888889</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="I15">
         <v>0.1111111111111111</v>
       </c>
       <c r="J15">
-        <v>0.3777777777777778</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="K15">
-        <v>0.07222222222222222</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06666666666666667</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2166666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006802721088435374</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1360544217687075</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="I16">
-        <v>0.06802721088435375</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="J16">
-        <v>0.4965986394557823</v>
+        <v>0.4785276073619632</v>
       </c>
       <c r="K16">
-        <v>0.1224489795918367</v>
+        <v>0.1104294478527607</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01360544217687075</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="N16">
-        <v>0.006802721088435374</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="O16">
-        <v>0.04761904761904762</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1020408163265306</v>
+        <v>0.09202453987730061</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03591160220994475</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2016574585635359</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="I17">
-        <v>0.08287292817679558</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="J17">
-        <v>0.4364640883977901</v>
+        <v>0.4267676767676767</v>
       </c>
       <c r="K17">
-        <v>0.07734806629834254</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0138121546961326</v>
+        <v>0.01262626262626263</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04696132596685083</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1049723756906077</v>
+        <v>0.1035353535353535</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02538071065989848</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1624365482233502</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="I18">
-        <v>0.1015228426395939</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="J18">
-        <v>0.4517766497461929</v>
+        <v>0.4558139534883721</v>
       </c>
       <c r="K18">
-        <v>0.05076142131979695</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02030456852791878</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05583756345177665</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1319796954314721</v>
+        <v>0.1302325581395349</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01394943330427201</v>
+        <v>0.01554828150572831</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2388840453356582</v>
+        <v>0.2356792144026187</v>
       </c>
       <c r="I19">
-        <v>0.1002615518744551</v>
+        <v>0.102291325695581</v>
       </c>
       <c r="J19">
-        <v>0.3443766346992154</v>
+        <v>0.3477905073649755</v>
       </c>
       <c r="K19">
-        <v>0.09677419354838709</v>
+        <v>0.09656301145662848</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02266782911944202</v>
+        <v>0.0220949263502455</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06451612903225806</v>
+        <v>0.0630114566284779</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1185701830863121</v>
+        <v>0.1170212765957447</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Columbia_B.xlsx
+++ b/team_specific_matrix/Columbia_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1764705882352941</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="C2">
-        <v>0.5966386554621849</v>
+        <v>0.5836734693877551</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02521008403361345</v>
+        <v>0.02448979591836735</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1176470588235294</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08403361344537816</v>
+        <v>0.08571428571428572</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01342281879194631</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C3">
-        <v>0.03355704697986577</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02684563758389262</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7046979865771812</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2214765100671141</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04661016949152542</v>
+        <v>0.04526748971193416</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008474576271186441</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07627118644067797</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2076271186440678</v>
+        <v>0.2139917695473251</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01694915254237288</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1398305084745763</v>
+        <v>0.139917695473251</v>
       </c>
       <c r="R6">
-        <v>0.06779661016949153</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="S6">
-        <v>0.4364406779661017</v>
+        <v>0.4320987654320987</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06432748538011696</v>
+        <v>0.06145251396648044</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03508771929824561</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04678362573099415</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1578947368421053</v>
+        <v>0.1564245810055866</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01169590643274854</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1812865497076023</v>
+        <v>0.1899441340782123</v>
       </c>
       <c r="R7">
-        <v>0.06432748538011696</v>
+        <v>0.06145251396648044</v>
       </c>
       <c r="S7">
-        <v>0.4385964912280702</v>
+        <v>0.441340782122905</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09662921348314607</v>
+        <v>0.09503239740820735</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01573033707865169</v>
+        <v>0.01511879049676026</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07191011235955057</v>
+        <v>0.0734341252699784</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.101123595505618</v>
+        <v>0.1058315334773218</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02022471910112359</v>
+        <v>0.02159827213822894</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1662921348314607</v>
+        <v>0.1663066954643629</v>
       </c>
       <c r="R8">
-        <v>0.1213483146067416</v>
+        <v>0.123110151187905</v>
       </c>
       <c r="S8">
-        <v>0.4067415730337079</v>
+        <v>0.3995680345572354</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06542056074766354</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02803738317757009</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06074766355140187</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08411214953271028</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004672897196261682</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1775700934579439</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="R9">
-        <v>0.1121495327102804</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="S9">
-        <v>0.4672897196261682</v>
+        <v>0.45662100456621</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09682947729220223</v>
+        <v>0.09480626545754328</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02656383890317052</v>
+        <v>0.02555647155812036</v>
       </c>
       <c r="E10">
-        <v>0.000856898029134533</v>
+        <v>0.001648804616652927</v>
       </c>
       <c r="F10">
-        <v>0.0805484147386461</v>
+        <v>0.07831821929101401</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1122536418166238</v>
+        <v>0.112118713932399</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01456726649528706</v>
+        <v>0.01483924154987634</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.194515852613539</v>
+        <v>0.1978565539983512</v>
       </c>
       <c r="R10">
-        <v>0.09511568123393316</v>
+        <v>0.09563066776586975</v>
       </c>
       <c r="S10">
-        <v>0.3787489288774636</v>
+        <v>0.3792250618301731</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1585365853658537</v>
+        <v>0.157088122605364</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06097560975609756</v>
+        <v>0.06130268199233716</v>
       </c>
       <c r="K11">
-        <v>0.2032520325203252</v>
+        <v>0.210727969348659</v>
       </c>
       <c r="L11">
-        <v>0.5772357723577236</v>
+        <v>0.5670498084291188</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.003831417624521073</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7337662337662337</v>
+        <v>0.7375</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1883116883116883</v>
+        <v>0.1875</v>
       </c>
       <c r="K12">
-        <v>0.006493506493506494</v>
+        <v>0.00625</v>
       </c>
       <c r="L12">
-        <v>0.05844155844155844</v>
+        <v>0.05625</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01298701298701299</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5897435897435898</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3846153846153846</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02564102564102564</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01587301587301587</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1375661375661376</v>
+        <v>0.1391752577319588</v>
       </c>
       <c r="I15">
-        <v>0.1111111111111111</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="J15">
-        <v>0.3650793650793651</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="K15">
-        <v>0.07936507936507936</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06878306878306878</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2222222222222222</v>
+        <v>0.2319587628865979</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01840490797546012</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1533742331288344</v>
+        <v>0.1506024096385542</v>
       </c>
       <c r="I16">
-        <v>0.0736196319018405</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="J16">
-        <v>0.4785276073619632</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="K16">
-        <v>0.1104294478527607</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01840490797546012</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="N16">
-        <v>0.006134969325153374</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="O16">
-        <v>0.049079754601227</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09202453987730061</v>
+        <v>0.09036144578313253</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03535353535353535</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.196969696969697</v>
+        <v>0.1880952380952381</v>
       </c>
       <c r="I17">
-        <v>0.08585858585858586</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="J17">
-        <v>0.4267676767676767</v>
+        <v>0.4214285714285714</v>
       </c>
       <c r="K17">
-        <v>0.08585858585858586</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01262626262626263</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05303030303030303</v>
+        <v>0.05</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1035353535353535</v>
+        <v>0.1095238095238095</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02325581395348837</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1627906976744186</v>
+        <v>0.1741071428571428</v>
       </c>
       <c r="I18">
-        <v>0.1023255813953488</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="J18">
-        <v>0.4558139534883721</v>
+        <v>0.4598214285714285</v>
       </c>
       <c r="K18">
-        <v>0.05116279069767442</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02325581395348837</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05116279069767442</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1302325581395349</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01554828150572831</v>
+        <v>0.01579778830963665</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2356792144026187</v>
+        <v>0.2369668246445498</v>
       </c>
       <c r="I19">
-        <v>0.102291325695581</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="J19">
-        <v>0.3477905073649755</v>
+        <v>0.3467614533965245</v>
       </c>
       <c r="K19">
-        <v>0.09656301145662848</v>
+        <v>0.09873617693522907</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0220949263502455</v>
+        <v>0.02290679304897314</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0630114566284779</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1170212765957447</v>
+        <v>0.1176935229067931</v>
       </c>
     </row>
   </sheetData>
